--- a/jiedan/baidu_ocr260/业务信息模板.xlsx
+++ b/jiedan/baidu_ocr260/业务信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="16110" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>客户名称</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>A001</t>
+  </si>
+  <si>
+    <t>郭浩然</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>郭星</t>
+  </si>
+  <si>
+    <t>A003</t>
   </si>
 </sst>
 </file>
@@ -1024,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="11.4" customWidth="1"/>
     <col min="3" max="3" width="44.625" customWidth="1"/>
@@ -1072,6 +1084,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>161.7</v>
+      </c>
+      <c r="D3">
+        <v>56465468465</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>329</v>
+      </c>
+      <c r="D4">
+        <v>654564654</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/jiedan/baidu_ocr260/业务信息模板.xlsx
+++ b/jiedan/baidu_ocr260/业务信息模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16110" windowHeight="8805"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1092,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>161.7</v>
+        <v>44.9</v>
       </c>
       <c r="D3">
         <v>56465468465</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>329</v>
+        <v>164.5</v>
       </c>
       <c r="D4">
         <v>654564654</v>
